--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pooja_giri/Desktop/New_Workspace/DSAlgoTechieExplorers/DSAlgo_BDD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pooja_giri/Desktop/New_Workspace/DS_AlgoTestNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E21BA72-CEA2-FA43-B5F7-91EB560BE7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3C3DF-FE4C-0341-B2F8-9C664ED64113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{EDFAD42D-AD00-9C42-AB59-57F50DC3860E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="3" xr2:uid="{EDFAD42D-AD00-9C42-AB59-57F50DC3860E}"/>
   </bookViews>
   <sheets>
     <sheet name="VALID_LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="INVALID_LOGIN" sheetId="3" r:id="rId2"/>
-    <sheet name="EDITOR" sheetId="2" r:id="rId3"/>
+    <sheet name="REGISTER" sheetId="4" r:id="rId3"/>
+    <sheet name="ARRAY_PRACTISE" sheetId="5" r:id="rId4"/>
+    <sheet name="EDITOR" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>UserName</t>
   </si>
@@ -76,13 +78,79 @@
   </si>
   <si>
     <t>Please fill out this field</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Expected_Output</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Sai@1234</t>
+  </si>
+  <si>
+    <t>"12345678"</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> password_mismatch:The two password fields didn’t match.</t>
+  </si>
+  <si>
+    <t>pythonCode</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>def search(input_list, num):\nif num in input_list:\nprint("Element Found")\n\b\n\b\nelse:\nprint("Not Found")\n\b\n\b\n\b\n\b\nsearch( [12, 23, 45, 67, 6, 90] , 12)</t>
+  </si>
+  <si>
+    <t>Element Found</t>
+  </si>
+  <si>
+    <t>def findMaxConsecutiveOnes(nums):\ncount = 0\nresult = 0\nfor i in range(0, len(nums)):\nif nums[i] == 0:\ncount = 0\n\b\n\b\nelse:\ncount += 1\nresult = max(result, count)\n\b\n\b\n\b\n\b\nprint(result)\n\n\b\n\b\nfindMaxConsecutiveOnes([1, 0, 1, 1, 0, 1])</t>
+  </si>
+  <si>
+    <t>def findNumbers(nums):\nc = 0\nfor i in nums:\nj = str(i)\nx = len(j)\nif x % 2 == 0:\nc += 1\n\b\n\b\n\b\n\b\nprint(c)\n\n\b\n\b\n\b\n\b\n\b\n\b\n\nreturn c\nfindNumbers([12,345,2,6,7896])</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):\nsquares_list = []\nfor i in range(0, len(nums)):\nsquare = nums[i] * nums[i];\nsquares_list.append(square)\nsorted_squares_list = sorted(squares_list)\n\b\n\b\nprint sorted_squares_list;\n\b\n\b\n\b\nreturn sorted_squares_list;\n\n\n\b\n\b\nsortedSquares([-7,-3,2,3,11])</t>
+  </si>
+  <si>
+    <t>def sortedSquares(nums):\nsquares_list = []\nfor i in range(0, len(nums)):\nsquare = nums[i] * nums[i];\nsquares_list.append(square)\nsorted_squares_list = sorted(squares_list)\n\b\n\b\nprint sorted_squares_list;\n\b\n\b\n\b\nreturn sorted_squares_list;\n\n\n\b\n\b\nsortedSquares([-4,-1,0,3,10])</t>
+  </si>
+  <si>
+    <t>Some Tests failed. Please review code</t>
+  </si>
+  <si>
+    <t>Submission Successful</t>
+  </si>
+  <si>
+    <t>No tests were collected</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>"[4, 9, 9, 49, 121]"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,8 +174,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,15 +244,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DFDD36-3DAF-384B-A1D2-C267E3EE5A66}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -486,7 +585,7 @@
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -502,12 +601,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
   </sheetData>
@@ -522,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565D0BC-C459-3D4B-BFF9-19A360BE62E6}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,6 +681,170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFC3BB2-6C43-A944-8AD6-DCDD580B0FCA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="51.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{731CA1BE-6B3C-E748-B41E-A32553EFD567}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32B0772-BE57-D640-B07D-59B6F678D9AA}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="231.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF2F85B-F540-754E-B42F-ADBB24B05913}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pooja_giri/Desktop/New_Workspace/DS_AlgoTestNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3C3DF-FE4C-0341-B2F8-9C664ED64113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F43E9E-4170-F144-B2B3-935616D9C49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="3" xr2:uid="{EDFAD42D-AD00-9C42-AB59-57F50DC3860E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{EDFAD42D-AD00-9C42-AB59-57F50DC3860E}"/>
   </bookViews>
   <sheets>
     <sheet name="VALID_LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="INVALID_LOGIN" sheetId="3" r:id="rId2"/>
     <sheet name="REGISTER" sheetId="4" r:id="rId3"/>
     <sheet name="ARRAY_PRACTISE" sheetId="5" r:id="rId4"/>
-    <sheet name="EDITOR" sheetId="2" r:id="rId5"/>
+    <sheet name="URL" sheetId="6" r:id="rId5"/>
+    <sheet name="EDITOR" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
   <si>
     <t>UserName</t>
   </si>
@@ -144,13 +145,268 @@
   </si>
   <si>
     <t>"[4, 9, 9, 49, 121]"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOME  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARRAY_PAGE_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARRAY_PYTHON_URL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARRAY_LIST_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARRAY_BASIC_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARRAY_APPS_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARRAY_PRACTICE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDITOR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEARCH_THE_ARRAY_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAX_CONSECUTIVES_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FIND_NUM_WITH_EVEN_DIGITS_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQUARES_OF_A_SORTED_ARRAY_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRAPHPG_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRAPHREP_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDITOR_URL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tryEditor"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dsintropage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arraypage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> llpage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stackpage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> queuepage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> treepage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> graphpage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gspage  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLINTRO_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREATE_LL_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TYPE_OF_LL_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMPLEMENT_LL_URL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/linked-list/implement-linked-list-in-python/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVERSE_LL_URL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INSERTION_LL_URL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/linked-list/insertion-in-linked-list/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DELETION_LL_URL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OVERVIEW_OF_TREE_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMINOLOGIES_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TYPES_OF_TREES_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TREE_TRAVERSALS_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAVERSALS_ILLUSTRATION_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BINARY_TREE_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TYPES_OF_BINARY_TREE_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMPLEMENTATION_IN_PYTHON_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BINARY_TREE_TRAVERSALS_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMPLEMENTATION_OF_BINARY_TREES_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APPLICATIONS_OF_BINARY_TREES_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BINARY_SEARCH_TREE_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMPLEMENTATION_OF_BST_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/home"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/array/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/array/arrays-using-list/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/array/basic-operations-in-lists/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/array/applications-of-array/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/array/practice"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> " "https://dsportalapp.herokuapp.com/question/1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "https://dsportalapp.herokuapp.com/array/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "https://dsportalapp.herokuapp.com/array/arrays-in-python/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "https://dsportalapp.herokuapp.com/linked-list/deletion-in-linked-list/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/data-structures-introduction/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/question/2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/question/3"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/question/4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/graph/graph/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/graph/graph-representations/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/linked-list/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/stack/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/queue/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/graph/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/linked-list/introduction/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/linked-list/creating-linked-list/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/linked-list/types-of-linked-list/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/linked-list/traversal/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/implementation-of-bst/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/binary-search-trees/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/applications-of-binary-trees/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/implementation-of-binary-trees/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/binary-tree-traversals/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/implementation-in-python/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/types-of-binary-trees/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/binary-trees/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/traversals-illustration/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/tree-traversals/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/types-of-trees/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/terminologies/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "https://dsportalapp.herokuapp.com/tree/overview-of-trees/"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +450,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7F0055"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -244,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,6 +520,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -735,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32B0772-BE57-D640-B07D-59B6F678D9AA}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -845,6 +1109,396 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAA6471-58CD-E14F-B813-1155978C9093}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://dsportalapp.herokuapp.com/home" xr:uid="{3CA1EBBC-39D9-1047-BCFF-AC20DDB52C5B}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://dsportalapp.herokuapp.com/array/" xr:uid="{E9C0B840-55CB-C949-8415-C01F8170A0B1}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://dsportalapp.herokuapp.com/array/applications-of-array/" xr:uid="{2026C6B7-2C19-A148-B79F-26CBF0FF1DCA}"/>
+    <hyperlink ref="B11" r:id="rId4" display="https://dsportalapp.herokuapp.com/question/3" xr:uid="{83982517-44C5-7F42-B7F2-A7886302B94D}"/>
+    <hyperlink ref="B17" r:id="rId5" display="https://dsportalapp.herokuapp.com/array/" xr:uid="{BD6FE292-F3BB-9945-B8F8-9D1416DF29D3}"/>
+    <hyperlink ref="B18" r:id="rId6" display="https://dsportalapp.herokuapp.com/linked-list/" xr:uid="{68C79CA4-9677-5341-B0B9-28DF08AA0A7B}"/>
+    <hyperlink ref="B19" r:id="rId7" display="https://dsportalapp.herokuapp.com/stack/" xr:uid="{CD084F04-65BE-6D46-B767-289788957C99}"/>
+    <hyperlink ref="B20" r:id="rId8" display="https://dsportalapp.herokuapp.com/queue/" xr:uid="{B2FF1C51-6CE7-B647-9AC6-5EFCE69ECB01}"/>
+    <hyperlink ref="B21" r:id="rId9" display="https://dsportalapp.herokuapp.com/tree/" xr:uid="{85D7DE7B-503B-0E49-A233-37C82F148A32}"/>
+    <hyperlink ref="B23" r:id="rId10" display="https://dsportalapp.herokuapp.com/" xr:uid="{2732E16F-34C9-0745-A85E-5DFEE5A0F114}"/>
+    <hyperlink ref="B25" r:id="rId11" display="https://dsportalapp.herokuapp.com/linked-list/creating-linked-list/" xr:uid="{213CEEEC-3483-9C41-924C-A704B0F6D811}"/>
+    <hyperlink ref="B26" r:id="rId12" display="https://dsportalapp.herokuapp.com/linked-list/types-of-linked-list/" xr:uid="{211F5BC0-416D-C146-8353-9FC3AC24DDFA}"/>
+    <hyperlink ref="B28" r:id="rId13" display="https://dsportalapp.herokuapp.com/linked-list/traversal/" xr:uid="{573BCCB5-7A39-F840-B008-0F5B844B85A7}"/>
+    <hyperlink ref="B31" r:id="rId14" display="https://dsportalapp.herokuapp.com/tree/overview-of-trees/" xr:uid="{57761D81-E0E7-5340-802B-F9815D56E0D3}"/>
+    <hyperlink ref="B32" r:id="rId15" display="https://dsportalapp.herokuapp.com/tree/terminologies/" xr:uid="{CAD02A64-121F-0D48-9E04-E93FB60E370D}"/>
+    <hyperlink ref="B34" r:id="rId16" display="https://dsportalapp.herokuapp.com/tree/tree-traversals/" xr:uid="{3DE72B56-871D-B041-AA11-A7E03A5E7364}"/>
+    <hyperlink ref="B35" r:id="rId17" display="https://dsportalapp.herokuapp.com/tree/traversals-illustration/" xr:uid="{28E04C45-0BB9-3B4E-A8D7-C071A7F8F4CE}"/>
+    <hyperlink ref="B36" r:id="rId18" display="https://dsportalapp.herokuapp.com/tree/binary-trees/" xr:uid="{35CEB696-13B6-4841-97F2-97F5B81F23C3}"/>
+    <hyperlink ref="B37" r:id="rId19" display="https://dsportalapp.herokuapp.com/tree/types-of-binary-trees/" xr:uid="{0EC6A5DA-F558-7F44-A7D3-EB655E194333}"/>
+    <hyperlink ref="B38" r:id="rId20" display="https://dsportalapp.herokuapp.com/tree/implementation-in-python/" xr:uid="{AD4ABE16-2ECB-D443-8082-95DECA7B8329}"/>
+    <hyperlink ref="B39" r:id="rId21" display="https://dsportalapp.herokuapp.com/tree/binary-tree-traversals/" xr:uid="{62825409-D9F0-8746-9A4A-408FB8BF134B}"/>
+    <hyperlink ref="B40" r:id="rId22" display="https://dsportalapp.herokuapp.com/tree/implementation-of-binary-trees/" xr:uid="{7AF49D8D-9A8B-1E4C-861A-20D68BE91401}"/>
+    <hyperlink ref="B41" r:id="rId23" display="https://dsportalapp.herokuapp.com/tree/applications-of-binary-trees/" xr:uid="{FD74F10B-70C2-FC41-8480-125C20687ED5}"/>
+    <hyperlink ref="B42" r:id="rId24" display="https://dsportalapp.herokuapp.com/tree/binary-search-trees/" xr:uid="{300CB269-7627-E549-AFB4-D23C01C81BD5}"/>
+    <hyperlink ref="B43" r:id="rId25" display="https://dsportalapp.herokuapp.com/tree/implementation-of-bst/" xr:uid="{9853492C-D8FC-0549-848F-4BF755FC94C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF2F85B-F540-754E-B42F-ADBB24B05913}">
   <dimension ref="A1:B2"/>
   <sheetViews>
